--- a/data/trans_dic/P69$nervioso-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6611507954129635</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.85931910240488</v>
+        <v>0.8593191024048801</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4165135496334881</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2599464339794713</v>
+        <v>0.2584056582427972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2821872660426705</v>
+        <v>0.3557105614326765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1405560651438516</v>
+        <v>0.1427634231617711</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2736843424909678</v>
+        <v>0.2736606062560489</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2679769158275496</v>
+        <v>0.1960749235660678</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3290444845535838</v>
+        <v>0.3335645318177426</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5040717255979705</v>
+        <v>0.5537596188362053</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3093095010636252</v>
+        <v>0.3047206300110782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3852102946461192</v>
+        <v>0.4103843283088801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2712344576296133</v>
+        <v>0.2857175882907846</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3832085060391995</v>
+        <v>0.3370508668689493</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.540411297760423</v>
+        <v>0.5543103383643636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9094246695131831</v>
+        <v>0.9149092597565974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5988468634569762</v>
+        <v>0.6077193936311847</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6749351753669847</v>
+        <v>0.6761154694921749</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8846541180530293</v>
+        <v>0.8151619773495115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9114543148518459</v>
+        <v>0.9126041720276113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5380078593235</v>
+        <v>0.5459851820839265</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8422805394659041</v>
+        <v>0.8388032287446184</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.650368799949118</v>
+        <v>0.6752386836814861</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9109511114210685</v>
+        <v>0.9016411522109588</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3635394183319337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7635442057026511</v>
+        <v>0.763544205702651</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5661817318830048</v>
@@ -821,7 +821,7 @@
         <v>0.6013945067204016</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6905542086048143</v>
+        <v>0.6905542086048144</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4837373638835301</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3491466749853498</v>
+        <v>0.3504103550368035</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.431586428037034</v>
+        <v>0.4301974367794239</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.255328188681539</v>
+        <v>0.2630788654514131</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6298014649968349</v>
+        <v>0.6012820623913372</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4458414495435544</v>
+        <v>0.4518665461689396</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4145451887402919</v>
+        <v>0.4073179778259872</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4654910720153104</v>
+        <v>0.4456429568567606</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5443564906290159</v>
+        <v>0.549632265403903</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4154782907871984</v>
+        <v>0.4140127406604595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4521402849452767</v>
+        <v>0.4542826982285831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.360667986692129</v>
+        <v>0.3640437208532161</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6258620064853133</v>
+        <v>0.6240819912696893</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5308924934764822</v>
+        <v>0.5219857407668111</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6452248531241899</v>
+        <v>0.6395277518112229</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4802474196577536</v>
+        <v>0.4865694289550686</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8786695508846372</v>
+        <v>0.8779514684350118</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6771392175156785</v>
+        <v>0.6748760744907544</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6717396767620104</v>
+        <v>0.6619648340002976</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7502672787283932</v>
+        <v>0.7328386581110727</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8129469017858783</v>
+        <v>0.8074885613231656</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5521877144591095</v>
+        <v>0.5539897220361337</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6217879448653439</v>
+        <v>0.6292697071455058</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5366916666105402</v>
+        <v>0.542816248088097</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8193224359673661</v>
+        <v>0.8205864951278542</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6226091275910168</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6045973146641436</v>
+        <v>0.6045973146641433</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4772797250575221</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3726757445095116</v>
+        <v>0.3732991323854855</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3701433467581193</v>
+        <v>0.3781880520677546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2977626612545021</v>
+        <v>0.2900285796098252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4411650173342865</v>
+        <v>0.4384844574423452</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3897532333631402</v>
+        <v>0.3802959711371695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4920507009894881</v>
+        <v>0.5018023841568204</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5081057333405516</v>
+        <v>0.4981625941409437</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5166249145919631</v>
+        <v>0.5066267608400005</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4045277795159365</v>
+        <v>0.4091712936384551</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4523620967348339</v>
+        <v>0.4520843397707843</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4056885617829531</v>
+        <v>0.4043002047454746</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5018776918874419</v>
+        <v>0.5029743383127782</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5553894350311228</v>
+        <v>0.5449301699269294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5730353658489749</v>
+        <v>0.5854611318552394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4855580310475686</v>
+        <v>0.4855474864688886</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6327885816733613</v>
+        <v>0.6341646368428464</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6217284625099141</v>
+        <v>0.6202428737288627</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7376281139264875</v>
+        <v>0.7309092321127938</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7306644057046171</v>
+        <v>0.7353265865424172</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6881292734338693</v>
+        <v>0.6870903947712804</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5564248705037405</v>
+        <v>0.5490375091703259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6159121100255416</v>
+        <v>0.6130231819069022</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5575112705671907</v>
+        <v>0.555977039569679</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6340033062893965</v>
+        <v>0.6348542276720307</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.5595369289631339</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7014390174483441</v>
+        <v>0.7014390174483442</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.4733904984619693</v>
@@ -1105,7 +1105,7 @@
         <v>0.5266179057400714</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6621891737351298</v>
+        <v>0.6621891737351296</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3737024944233219</v>
+        <v>0.3629381721173514</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2747280394095462</v>
+        <v>0.2840681149001926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4024926295501042</v>
+        <v>0.40177868749424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5194790561960542</v>
+        <v>0.5246350848042302</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3461155169183891</v>
+        <v>0.3320009461125229</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3404780384402598</v>
+        <v>0.3501660412711234</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4123018639093314</v>
+        <v>0.4021057684125015</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6340976347190957</v>
+        <v>0.6321473575074251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3830516521148238</v>
+        <v>0.3923986302088123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3445228062845649</v>
+        <v>0.3399045507718177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4380552625025211</v>
+        <v>0.437558436549028</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5999973465190521</v>
+        <v>0.6022401354234391</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5699881641436102</v>
+        <v>0.5616716395041293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4792605770322539</v>
+        <v>0.4960492209435661</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6149286524779203</v>
+        <v>0.6249723246090811</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7048406410044846</v>
+        <v>0.70846831923158</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.677481587791504</v>
+        <v>0.6716563737772236</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6749414134099039</v>
+        <v>0.6736073808195576</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7034205731067624</v>
+        <v>0.6907152291011641</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7616153029432832</v>
+        <v>0.7584692347604438</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5499877052131189</v>
+        <v>0.564831695835626</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5194244769454792</v>
+        <v>0.522277067789971</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6121758569374011</v>
+        <v>0.6062283772799931</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7153432420961789</v>
+        <v>0.7150487539929908</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5504675561547882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6366130690027851</v>
+        <v>0.6366130690027852</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3610547120366235</v>
@@ -1241,7 +1241,7 @@
         <v>0.5856228365145928</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6446688033113045</v>
+        <v>0.6446688033113044</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1844214986181451</v>
+        <v>0.1819938752065002</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2945159560300747</v>
+        <v>0.3094505362558526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3937957214953209</v>
+        <v>0.3994555346451155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.520826134906142</v>
+        <v>0.5125282555706284</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.140828594282697</v>
+        <v>0.1415493860457712</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3841233212867044</v>
+        <v>0.4108741720243029</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.452073794967904</v>
+        <v>0.4203760468406653</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5609053539261879</v>
+        <v>0.5524089707640079</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2110141330202779</v>
+        <v>0.2109364799173336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3999684758445909</v>
+        <v>0.3925124298347816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4646593138476695</v>
+        <v>0.4634768860349846</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5663015889423072</v>
+        <v>0.5736524349401693</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4471668551215554</v>
+        <v>0.4610740219044432</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6040323041486167</v>
+        <v>0.6100812451872168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7003743562107636</v>
+        <v>0.7063798500317822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7333624226726408</v>
+        <v>0.7389701985222538</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6412603117807717</v>
+        <v>0.6462637166155364</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8096157698928862</v>
+        <v>0.8219111652510126</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8151227701364747</v>
+        <v>0.808921234968383</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7387262899510842</v>
+        <v>0.7388834130100742</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4553868254192739</v>
+        <v>0.4407418055565158</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6622272874459467</v>
+        <v>0.6480504610131081</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6999470400557305</v>
+        <v>0.7009370905140733</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7075546281360178</v>
+        <v>0.715402773863456</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.4981217327925999</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6454550848027323</v>
+        <v>0.6454550848027325</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3750212780400902</v>
+        <v>0.3750145735124971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5620498706155886</v>
+        <v>0.5586806618353195</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6280118909922439</v>
+        <v>0.6284303031944684</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4686201220595892</v>
+        <v>0.464053404014462</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4549835171895991</v>
+        <v>0.4539842836894373</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6123956167146042</v>
+        <v>0.611361703394017</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4887248422100474</v>
+        <v>0.4862874325706368</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6732208399647258</v>
+        <v>0.6723320988233139</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7125669350598767</v>
+        <v>0.7154623729347372</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5541214813960355</v>
+        <v>0.5582665919341073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5410762910672456</v>
+        <v>0.5414326676749553</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6813324869434821</v>
+        <v>0.6789274817602657</v>
       </c>
     </row>
     <row r="22">
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12002</v>
+        <v>11931</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2914</v>
+        <v>3673</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2411</v>
+        <v>2449</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1752,25 +1752,25 @@
         <v>5435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2695</v>
+        <v>1972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3831</v>
+        <v>3884</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8014</v>
+        <v>8804</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20424</v>
+        <v>20121</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7852</v>
+        <v>8365</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7810</v>
+        <v>8227</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9625</v>
+        <v>8466</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24952</v>
+        <v>25594</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9392</v>
+        <v>9448</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10271</v>
+        <v>10423</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>9218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13404</v>
+        <v>13427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8896</v>
+        <v>8197</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10612</v>
+        <v>10625</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>15899</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35525</v>
+        <v>36052</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17168</v>
+        <v>17097</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18727</v>
+        <v>19443</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22880</v>
+        <v>22647</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>49680</v>
+        <v>49860</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37241</v>
+        <v>37121</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20828</v>
+        <v>21460</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43830</v>
+        <v>41845</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35344</v>
+        <v>35822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>27821</v>
+        <v>27336</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>21548</v>
+        <v>20629</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28041</v>
+        <v>28313</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>92056</v>
+        <v>91731</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>69358</v>
+        <v>69687</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>46116</v>
+        <v>46548</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>75795</v>
+        <v>75579</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75541</v>
+        <v>74274</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55675</v>
+        <v>55184</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>39175</v>
+        <v>39690</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>61149</v>
+        <v>61099</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>53680</v>
+        <v>53501</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45082</v>
+        <v>44426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34731</v>
+        <v>33924</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41877</v>
+        <v>41595</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>122346</v>
+        <v>122745</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>95382</v>
+        <v>96530</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>68623</v>
+        <v>69406</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>99224</v>
+        <v>99377</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46968</v>
+        <v>47046</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36228</v>
+        <v>37016</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>33684</v>
+        <v>32809</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48518</v>
+        <v>48223</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27299</v>
+        <v>26637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35738</v>
+        <v>36446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36308</v>
+        <v>35598</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44761</v>
+        <v>43895</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>79316</v>
+        <v>80226</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77131</v>
+        <v>77084</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>74882</v>
+        <v>74626</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>98678</v>
+        <v>98894</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>69995</v>
+        <v>68676</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56086</v>
+        <v>57303</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54928</v>
+        <v>54927</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>69592</v>
+        <v>69744</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>43547</v>
+        <v>43443</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53575</v>
+        <v>53087</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52212</v>
+        <v>52545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>59620</v>
+        <v>59530</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>109098</v>
+        <v>107650</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>105017</v>
+        <v>104525</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102906</v>
+        <v>102623</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>124656</v>
+        <v>124824</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41522</v>
+        <v>40326</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>24390</v>
+        <v>25220</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36799</v>
+        <v>36734</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>62613</v>
+        <v>63234</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12819</v>
+        <v>12296</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14111</v>
+        <v>14513</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23133</v>
+        <v>22561</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80223</v>
+        <v>79976</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56748</v>
+        <v>58133</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>44866</v>
+        <v>44264</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>64628</v>
+        <v>64555</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>148226</v>
+        <v>148780</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>63331</v>
+        <v>62407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>42549</v>
+        <v>44039</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>56222</v>
+        <v>57140</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84954</v>
+        <v>85392</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25092</v>
+        <v>24876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27974</v>
+        <v>27918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39467</v>
+        <v>38754</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>96356</v>
+        <v>95958</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>81479</v>
+        <v>83678</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>67643</v>
+        <v>68014</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>90317</v>
+        <v>89440</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>176722</v>
+        <v>176649</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8462</v>
+        <v>8350</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12321</v>
+        <v>12946</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17661</v>
+        <v>17915</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37511</v>
+        <v>36914</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1959</v>
+        <v>1969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9443</v>
+        <v>10100</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13923</v>
+        <v>12947</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>34646</v>
+        <v>34121</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12617</v>
+        <v>12612</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>26564</v>
+        <v>26069</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>35150</v>
+        <v>35060</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>75766</v>
+        <v>76750</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20517</v>
+        <v>21155</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25269</v>
+        <v>25522</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>31410</v>
+        <v>31680</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52819</v>
+        <v>53223</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8919</v>
+        <v>8989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19902</v>
+        <v>20204</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25105</v>
+        <v>24914</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45630</v>
+        <v>45639</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>27228</v>
+        <v>26352</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>43982</v>
+        <v>43041</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>52948</v>
+        <v>53023</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>94664</v>
+        <v>95714</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>130553</v>
+        <v>130551</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>214333</v>
+        <v>213048</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>214990</v>
+        <v>215134</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>253492</v>
+        <v>251022</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>256801</v>
+        <v>256237</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>443176</v>
+        <v>442428</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>170136</v>
+        <v>169287</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>256727</v>
+        <v>256388</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>243937</v>
+        <v>244928</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>299743</v>
+        <v>301985</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>305394</v>
+        <v>305595</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>493064</v>
+        <v>491324</v>
       </c>
     </row>
     <row r="28">
